--- a/IG_ONT.xlsx
+++ b/IG_ONT.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\indoorGolfDir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\indoorgolfdirgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C1D18001-D580-4215-B545-76E4C5F07E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EFA871-4E8A-41F8-A083-F1226378E657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4395" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{BB39BAA9-8629-4226-A164-87CE3C4A31C1}"/>
   </bookViews>
   <sheets>
     <sheet name="IG_Ontario" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -5038,8 +5051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2E0552-0298-4407-9321-F3D7018D81C7}">
   <dimension ref="A1:AE285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A286" sqref="A286"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6458,7 +6471,7 @@
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+      <c r="A22" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B22" t="s">
@@ -6633,7 +6646,7 @@
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+      <c r="A24" s="5" t="s">
         <v>221</v>
       </c>
       <c r="B24" t="s">
@@ -6851,7 +6864,7 @@
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+      <c r="A28" s="5" t="s">
         <v>244</v>
       </c>
       <c r="B28" t="s">
@@ -7081,7 +7094,7 @@
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+      <c r="A32" s="5" t="s">
         <v>270</v>
       </c>
       <c r="B32" t="s">
@@ -7748,7 +7761,7 @@
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+      <c r="A43" s="5" t="s">
         <v>351</v>
       </c>
       <c r="B43" t="s">
@@ -8075,7 +8088,7 @@
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
+      <c r="A49" s="5" t="s">
         <v>380</v>
       </c>
       <c r="B49" t="s">
@@ -8125,7 +8138,7 @@
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
+      <c r="A50" s="5" t="s">
         <v>384</v>
       </c>
       <c r="B50" t="s">
@@ -10359,7 +10372,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:31" ht="114" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>588</v>
       </c>
@@ -17762,7 +17775,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="258" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:31" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>1252</v>
       </c>
@@ -18993,6 +19006,13 @@
     <hyperlink ref="A283" r:id="rId5" xr:uid="{0C279A82-243D-4687-861A-BDB47BFA41BC}"/>
     <hyperlink ref="A284" r:id="rId6" xr:uid="{5A877E3C-59F2-458F-8924-02E88CD80F48}"/>
     <hyperlink ref="A285" r:id="rId7" xr:uid="{C945394E-1014-4718-AA6C-530C4FB545E3}"/>
+    <hyperlink ref="A22" r:id="rId8" xr:uid="{459FAB61-11A6-48A6-B9FF-3D09065BB29E}"/>
+    <hyperlink ref="A24" r:id="rId9" xr:uid="{225EE446-25FB-498E-89B6-3AE7D2F80E15}"/>
+    <hyperlink ref="A49" r:id="rId10" xr:uid="{37E5BF04-D168-434F-97E7-897A8044F92A}"/>
+    <hyperlink ref="A43" r:id="rId11" xr:uid="{59A472C8-1CDD-4296-A3EA-0A8570D1909B}"/>
+    <hyperlink ref="A50" r:id="rId12" xr:uid="{BD30EBC6-D17A-4005-8262-C321FD78E336}"/>
+    <hyperlink ref="A28" r:id="rId13" xr:uid="{1389EC16-8246-419C-B3E4-3C95D4738C16}"/>
+    <hyperlink ref="A32" r:id="rId14" xr:uid="{1EC056E1-332E-40CB-940C-AE804CB72FA6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
